--- a/Tools/本地数据表/DTSys_UIForm.xlsx
+++ b/Tools/本地数据表/DTSys_UIForm.xlsx
@@ -24,249 +24,207 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UIGroupId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DisableUILayer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IsLock</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AssetPath_Chinese</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AssetPath_English</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CanMulit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShowMode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FreezeMode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>byte</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI分组编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>禁用层级管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否锁定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>允许多实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>显示类型0=普通1=反切</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>冻结类型0=置空层</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1=禁用</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结类型0=置空层1=禁用</t>
   </si>
   <si>
     <t>Loading</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI_Loading</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Loading/UI_Loading</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Dialog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI_Dialog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FormChinese/UI_Dialog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormChinese/UI_Dialog</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Joystick</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI_Joystick</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FormChinese/UI_Joystick</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormChinese/UI_Joystick</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>登录流程背景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UI_LogonBG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormChinese/RegLogon/UI_LogonBG</t>
+  </si>
+  <si>
+    <t>注册UI</t>
+  </si>
+  <si>
+    <t>UI_Reg</t>
+  </si>
+  <si>
+    <t>FormChinese/RegLogon/UI_Reg</t>
+  </si>
+  <si>
+    <t>登录UI</t>
+  </si>
+  <si>
+    <t>UI_Login</t>
+  </si>
+  <si>
+    <t>FormChinese/RegLogon/UI_Login</t>
+  </si>
+  <si>
+    <t>创建角色</t>
+  </si>
+  <si>
+    <t>UI_CreateRole</t>
+  </si>
+  <si>
+    <t>FormChinese/RegLogon/UI_CreateRole</t>
+  </si>
+  <si>
+    <t>选择角色</t>
+  </si>
+  <si>
+    <t>UI_SelectRole</t>
+  </si>
+  <si>
+    <t>FormChinese/RegLogon/UI_SelectRole</t>
+  </si>
+  <si>
+    <t>任务列表</t>
+  </si>
+  <si>
+    <t>UI_Task</t>
+  </si>
+  <si>
+    <t>FormChinese/UI_Task</t>
+  </si>
+  <si>
+    <t>任务详情</t>
+  </si>
+  <si>
+    <t>UI_TaskDetail</t>
+  </si>
+  <si>
+    <t>FormChinese/UI_TaskDetail</t>
+  </si>
+  <si>
+    <t>主界面</t>
+  </si>
+  <si>
+    <t>UI_MainCity</t>
+  </si>
+  <si>
+    <t>FormChinese/UI_MainCity</t>
   </si>
   <si>
     <t>FormChinese/UI_LogonBG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormChinese/UI_LogonBG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI_Reg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FormChinese/UI_Reg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormChinese/UI_Reg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI_Login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FormChinese/UI_Login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI_Task</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormChinese/UI_Task</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormChinese/UI_Task</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI_TaskDetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormChinese/UI_TaskDetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormChinese/UI_TaskDetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormChinese/UI_CreateRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormChinese/UI_SelectRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,25 +240,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="6" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -682,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -746,10 +691,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -758,7 +703,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>
@@ -769,37 +714,37 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -807,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -822,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>0</v>
@@ -842,10 +787,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -857,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>0</v>
@@ -877,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -892,10 +837,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>0</v>
@@ -912,10 +857,10 @@
         <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -927,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>0</v>
@@ -947,10 +892,10 @@
         <v>102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -962,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -982,10 +927,10 @@
         <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -997,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1017,10 +962,10 @@
         <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1032,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1052,10 +997,10 @@
         <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1067,18 +1012,123 @@
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
